--- a/files/generatedTemplates/GeneratedASNConversionTemplateCMIP.xlsx.xlsx
+++ b/files/generatedTemplates/GeneratedASNConversionTemplateCMIP.xlsx.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:IQ4"/>
+  <dimension ref="A1:IS4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1136,6 +1136,12 @@
       <c r="IQ1" t="str">
         <v>Check Items Flag</v>
       </c>
+      <c r="IR1" t="str">
+        <v>Date Converted</v>
+      </c>
+      <c r="IS1" t="str">
+        <v>Conversion Type</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -1962,6 +1968,9 @@
       <c r="GV3" t="str">
         <v>0</v>
       </c>
+      <c r="IR3" t="str">
+        <v>11/9/2021, 4:56:07 PM</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -2033,10 +2042,13 @@
       <c r="GV4" t="str">
         <v>0</v>
       </c>
+      <c r="IR4" t="str">
+        <v>11/9/2021, 4:56:07 PM</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:IQ4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:IS4"/>
   </ignoredErrors>
 </worksheet>
 </file>